--- a/spliced/struggle/2023-04-06_18-15-34/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-15-34/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.005503296852111615</v>
+        <v>-0.03444957733154287</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1945102314154306</v>
+        <v>0.01032954454422018</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2710902802646161</v>
+        <v>0.2995094756285349</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4163046777248382</v>
+        <v>-0.0041233403608202</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.031584978103638</v>
+        <v>0.0484110713005065</v>
       </c>
       <c r="H2" t="n">
-        <v>1.399950385093689</v>
+        <v>-0.0001527163112768</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.01686970392863169</v>
+        <v>-0.07984677950541165</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.689376473426814</v>
+        <v>-0.1310317392150563</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4833486676216042</v>
+        <v>0.2751492535074553</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.085062988102436</v>
+        <v>-0.0736092627048492</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.666898488998413</v>
+        <v>-0.0381790772080421</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3200933933258056</v>
+        <v>0.0797179117798805</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7827135920524584</v>
+        <v>-0.09086012840270966</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.646403878927229</v>
+        <v>-0.02373796701431304</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.282532811164854</v>
+        <v>0.2084361910820008</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2128865420818328</v>
+        <v>-1.18019163608551</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1716531366109848</v>
+        <v>-4.37715482711792</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4915938079357147</v>
+        <v>0.3266601860523224</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.04310808579127</v>
+        <v>0.005503296852111615</v>
       </c>
       <c r="D5" t="n">
-        <v>0.482522944609324</v>
+        <v>-0.1945102314154306</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.852447708447774</v>
+        <v>0.2710902802646161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4960225820541382</v>
+        <v>0.4163046777248382</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8994990587234497</v>
+        <v>-2.031584978103638</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5232060551643372</v>
+        <v>1.399950385093689</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.88519119222959</v>
+        <v>-0.01686970392863169</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1530523101488742</v>
+        <v>-0.689376473426814</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5539670785268116</v>
+        <v>-0.4833486676216042</v>
       </c>
       <c r="F6" t="n">
-        <v>1.297935962677002</v>
+        <v>-0.085062988102436</v>
       </c>
       <c r="G6" t="n">
-        <v>6.144540786743164</v>
+        <v>-1.666898488998413</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5485569834709167</v>
+        <v>0.3200933933258056</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.359475612640381</v>
+        <v>0.7827135920524584</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4427683353424072</v>
+        <v>-2.646403878927229</v>
       </c>
       <c r="E7" t="n">
-        <v>1.851428031921387</v>
+        <v>-4.282532811164854</v>
       </c>
       <c r="F7" t="n">
-        <v>0.395077109336853</v>
+        <v>0.2128865420818328</v>
       </c>
       <c r="G7" t="n">
-        <v>5.482057571411133</v>
+        <v>-0.1716531366109848</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6198754906654358</v>
+        <v>0.4915938079357147</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.12837818264961</v>
+        <v>-1.04310808579127</v>
       </c>
       <c r="D8" t="n">
-        <v>1.37843454877535</v>
+        <v>0.482522944609324</v>
       </c>
       <c r="E8" t="n">
-        <v>1.588190158208212</v>
+        <v>-1.852447708447774</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6418666839599609</v>
+        <v>0.4960225820541382</v>
       </c>
       <c r="G8" t="n">
-        <v>1.02396285533905</v>
+        <v>0.8994990587234497</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6579018831253052</v>
+        <v>-0.5232060551643372</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-9.990091621875759</v>
+        <v>-2.88519119222959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5772410134474441</v>
+        <v>-0.1530523101488742</v>
       </c>
       <c r="E9" t="n">
-        <v>7.240908702214556</v>
+        <v>0.5539670785268116</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1765400618314743</v>
+        <v>1.297935962677002</v>
       </c>
       <c r="G9" t="n">
-        <v>1.450194120407104</v>
+        <v>6.144540786743164</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3078760802745819</v>
+        <v>0.5485569834709167</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.089871168136629</v>
+        <v>-2.359475612640381</v>
       </c>
       <c r="D10" t="n">
-        <v>1.149596989154817</v>
+        <v>-0.4427683353424072</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.327601671218906</v>
+        <v>1.851428031921387</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0943786799907684</v>
+        <v>0.395077109336853</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3147483170032501</v>
+        <v>5.482057571411133</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7883216142654419</v>
+        <v>-0.6198754906654358</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.657969951629632</v>
+        <v>-3.12837818264961</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6963444749514238</v>
+        <v>1.37843454877535</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.005745251973476</v>
+        <v>1.588190158208212</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4792237877845764</v>
+        <v>0.6418666839599609</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.076748371124268</v>
+        <v>1.02396285533905</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.524872422218323</v>
+        <v>0.6579018831253052</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.83851852019628</v>
+        <v>-9.990091621875759</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4919258654117603</v>
+        <v>0.5772410134474441</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4817840854326922</v>
+        <v>7.240908702214556</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.015118914656341</v>
+        <v>0.1765400618314743</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.905566930770874</v>
+        <v>1.450194120407104</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6056728959083557</v>
+        <v>-0.3078760802745819</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.064056754112247</v>
+        <v>3.089871168136629</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9830632209777808</v>
+        <v>1.149596989154817</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.221896290779103</v>
+        <v>-7.327601671218906</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9416487812995912</v>
+        <v>-0.0943786799907684</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.088382005691528</v>
+        <v>-0.3147483170032501</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4016439020633697</v>
+        <v>-0.7883216142654419</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.642586628595987</v>
+        <v>-1.657969951629632</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.08318759004274168</v>
+        <v>-0.6963444749514238</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6120627919833304</v>
+        <v>-3.005745251973476</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3442225754261017</v>
+        <v>0.4792237877845764</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.283719778060913</v>
+        <v>-5.076748371124268</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2553416788578033</v>
+        <v>-1.524872422218323</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-2.159881273905432</v>
+        <v>-2.83851852019628</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.468431472778319</v>
+        <v>-0.4919258654117603</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03336954116820623</v>
+        <v>-0.4817840854326922</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1937969923019409</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0872010141611099</v>
+        <v>-3.905566930770874</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3181080818176269</v>
+        <v>0.6056728959083557</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-3.000638425350189</v>
+        <v>-1.064056754112247</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02016200125217193</v>
+        <v>0.9830632209777808</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.370798766613007</v>
+        <v>-6.221896290779103</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7287622094154358</v>
+        <v>-0.9416487812995912</v>
       </c>
       <c r="G16" t="n">
-        <v>4.673271656036377</v>
+        <v>-3.088382005691528</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.6183483600616455</v>
+        <v>-0.4016439020633697</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-4.049820343653357</v>
+        <v>-0.642586628595987</v>
       </c>
       <c r="D17" t="n">
-        <v>1.876313845316566</v>
+        <v>-0.08318759004274168</v>
       </c>
       <c r="E17" t="n">
-        <v>1.094406366348257</v>
+        <v>-0.6120627919833304</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5477933883666992</v>
+        <v>-0.3442225754261017</v>
       </c>
       <c r="G17" t="n">
-        <v>5.67539644241333</v>
+        <v>-2.283719778060913</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.208291411399841</v>
+        <v>0.2553416788578033</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-7.227878630161286</v>
+        <v>-2.159881273905432</v>
       </c>
       <c r="D18" t="n">
-        <v>1.69673324127992</v>
+        <v>-1.468431472778319</v>
       </c>
       <c r="E18" t="n">
-        <v>3.92280129591624</v>
+        <v>-0.03336954116820623</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9772316813468932</v>
+        <v>-0.1937969923019409</v>
       </c>
       <c r="G18" t="n">
-        <v>1.330769896507263</v>
+        <v>-0.0872010141611099</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8104654550552368</v>
+        <v>0.3181080818176269</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-2.149182796478235</v>
+        <v>-3.000638425350189</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.535205185413374</v>
+        <v>-0.02016200125217193</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8277400732040205</v>
+        <v>-1.370798766613007</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8136724829673767</v>
+        <v>0.7287622094154358</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1959350258111953</v>
+        <v>4.673271656036377</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.294437050819397</v>
+        <v>-0.6183483600616455</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.039104461669923</v>
+        <v>-4.049820343653357</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.047793030738832</v>
+        <v>1.876313845316566</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.546324898799259</v>
+        <v>1.094406366348257</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1049161031842231</v>
+        <v>0.5477933883666992</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2081523388624191</v>
+        <v>5.67539644241333</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.4677700698375702</v>
+        <v>-1.208291411399841</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-7.227878630161286</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.69673324127992</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.92280129591624</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9772316813468932</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.330769896507263</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8104654550552368</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.149182796478235</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.535205185413374</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8277400732040205</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8136724829673767</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.1959350258111953</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.294437050819397</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.039104461669923</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.047793030738832</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-4.546324898799259</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1049161031842231</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.2081523388624191</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.4677700698375702</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>-1.214001258214315</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>1.53115118543307</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>-4.196547468503316</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>-0.6108652353286743</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>-0.9943358898162842</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>0.4877758920192718</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.15471959114075</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2546487897634502</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.9123589172959333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.5545129179954529</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.7066183686256409</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.1945605874061584</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6330445607503264</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5185447335243235</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3759170770645095</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0233655963093042</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0335975885391235</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.5940664410591125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2923502524693779</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.1014364187916107</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.366777941584587</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1398881375789642</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0471893399953842</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.531147301197052</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.484014511108395</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.6635967791080455</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.253775984048842</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0551305897533893</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0639881342649459</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.093156948685646</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2468122641245533</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4217223922411623</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5185143599907569</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1805106848478317</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0415388382971286</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1635591685771942</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.3225175539652509</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.6644023060798641</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.07338536779085762</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.1348485052585601</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1539380401372909</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1916589736938476</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.4933383464813202</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.1615586355328552</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.263843480497599</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0897971913218498</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1873829066753387</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0282525178045034</v>
       </c>
     </row>
   </sheetData>
